--- a/Datasets/CONASAMI/SMG_2015.xlsx
+++ b/Datasets/CONASAMI/SMG_2015.xlsx
@@ -7470,15 +7470,6 @@
     <t>Dataset base</t>
   </si>
   <si>
-    <t>Clasificación de los municipios en dos áreas geográficas</t>
-  </si>
-  <si>
-    <t>Clasificación de areas geograficas para asignación de salarios mínimos, vigente del 27 de noviembre de 2012 al 30 de septiembre de 2015</t>
-  </si>
-  <si>
-    <t>Vigente del 27 de noviembre de 2012 al 30 de septiembre de 2015</t>
-  </si>
-  <si>
     <t>SMG_2015</t>
   </si>
   <si>
@@ -7487,6 +7478,15 @@
   <si>
     <t>"smg_2015.xlsx" disponible en 
 https://github.com/INECC-PCCS/01_Dmine/tree/master/Datasets/CONASAMI/smg_2015.xlsx</t>
+  </si>
+  <si>
+    <t>Salarios minimos por municipio.</t>
+  </si>
+  <si>
+    <t>Vigente del 27 de noviembre de 2012 al 30 de septiembre de 2015</t>
+  </si>
+  <si>
+    <t>Clasificación en dos áreas geográficas para asignación de salarios mínimos, vigente del 27 de noviembre de 2012 al 30 de septiembre de 2015.</t>
   </si>
 </sst>
 </file>
@@ -7909,7 +7909,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -34994,13 +34994,13 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="127.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -35016,7 +35016,7 @@
         <v>2467</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2480</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -35024,7 +35024,7 @@
         <v>2468</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2481</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -35032,7 +35032,7 @@
         <v>2469</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2484</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -35056,7 +35056,7 @@
         <v>2474</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -35080,7 +35080,7 @@
         <v>2479</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
     </row>
   </sheetData>
